--- a/Table_S2.xlsx
+++ b/Table_S2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE19995-544A-4B28-B9E9-2B82856FD5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A549CB5-47C2-473C-BA0C-B313B19C8505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -8817,7 +8817,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8825,12 +8825,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8846,6 +8855,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9130,23 +9140,23 @@
   <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="98.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="98.86328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>2353</v>
       </c>
@@ -9155,7 +9165,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -9178,7 +9188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2013</v>
       </c>
@@ -9201,7 +9211,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -9224,7 +9234,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
@@ -9247,7 +9257,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -9270,7 +9280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -9293,7 +9303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -9316,7 +9326,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -9339,7 +9349,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
@@ -9362,7 +9372,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -9385,7 +9395,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -9408,7 +9418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2015</v>
       </c>
@@ -9431,7 +9441,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2015</v>
       </c>
@@ -9454,7 +9464,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -9477,7 +9487,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -9500,7 +9510,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2015</v>
       </c>
@@ -9546,7 +9556,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -9569,7 +9579,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -9592,7 +9602,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2015</v>
       </c>
@@ -9615,7 +9625,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -9638,7 +9648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>2015</v>
       </c>
@@ -9661,7 +9671,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -9684,7 +9694,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -9707,7 +9717,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -9730,7 +9740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -9753,7 +9763,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -9776,7 +9786,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -9799,7 +9809,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -9822,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -9845,7 +9855,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -9891,7 +9901,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -9914,7 +9924,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -9937,7 +9947,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -9983,7 +9993,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -10006,7 +10016,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -10029,7 +10039,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -10052,7 +10062,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -10075,7 +10085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -10098,7 +10108,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -10121,7 +10131,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -10144,7 +10154,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>2016</v>
       </c>
@@ -10167,7 +10177,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>2016</v>
       </c>
@@ -10190,7 +10200,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -10236,7 +10246,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -10259,7 +10269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -10305,7 +10315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -10328,7 +10338,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
@@ -10351,7 +10361,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
@@ -10397,7 +10407,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>2017</v>
       </c>
@@ -10420,7 +10430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
@@ -10443,7 +10453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>2017</v>
       </c>
@@ -10466,7 +10476,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>2017</v>
       </c>
@@ -10489,7 +10499,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>2017</v>
       </c>
@@ -10512,7 +10522,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
@@ -10535,7 +10545,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
@@ -10558,7 +10568,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
@@ -10581,7 +10591,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>2017</v>
       </c>
@@ -10604,7 +10614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>2017</v>
       </c>
@@ -10627,7 +10637,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>2017</v>
       </c>
@@ -10650,7 +10660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>2017</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>2017</v>
       </c>
@@ -10696,7 +10706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
@@ -10719,7 +10729,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>2017</v>
       </c>
@@ -10742,7 +10752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>2017</v>
       </c>
@@ -10765,7 +10775,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>2017</v>
       </c>
@@ -10788,7 +10798,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>2017</v>
       </c>
@@ -10811,7 +10821,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -10834,7 +10844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -10857,7 +10867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
@@ -10880,7 +10890,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -10903,7 +10913,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -10926,7 +10936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
@@ -10949,7 +10959,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
@@ -10972,7 +10982,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
@@ -10995,7 +11005,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
@@ -11018,7 +11028,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
@@ -11064,7 +11074,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
@@ -11087,7 +11097,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
@@ -11110,7 +11120,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
@@ -11133,7 +11143,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
@@ -11156,7 +11166,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
@@ -11179,7 +11189,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
@@ -11202,7 +11212,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
@@ -11225,7 +11235,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
@@ -11248,7 +11258,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
@@ -11271,7 +11281,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
@@ -11317,7 +11327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
@@ -11340,7 +11350,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
@@ -11363,7 +11373,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
@@ -11386,7 +11396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
@@ -11409,7 +11419,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
@@ -11432,7 +11442,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>2018</v>
       </c>
@@ -11455,7 +11465,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>2018</v>
       </c>
@@ -11478,7 +11488,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>2018</v>
       </c>
@@ -11501,7 +11511,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>2018</v>
       </c>
@@ -11524,7 +11534,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>2018</v>
       </c>
@@ -11547,7 +11557,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>2018</v>
       </c>
@@ -11570,7 +11580,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>2018</v>
       </c>
@@ -11593,7 +11603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>2018</v>
       </c>
@@ -11616,7 +11626,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>2018</v>
       </c>
@@ -11639,7 +11649,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>2018</v>
       </c>
@@ -11662,7 +11672,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>2018</v>
       </c>
@@ -11685,7 +11695,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>2018</v>
       </c>
@@ -11708,7 +11718,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>2018</v>
       </c>
@@ -11731,7 +11741,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>2018</v>
       </c>
@@ -11754,7 +11764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>2018</v>
       </c>
@@ -11777,7 +11787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>2018</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>2018</v>
       </c>
@@ -11823,7 +11833,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>2018</v>
       </c>
@@ -11846,7 +11856,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>2018</v>
       </c>
@@ -11869,7 +11879,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>2018</v>
       </c>
@@ -11892,7 +11902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>2018</v>
       </c>
@@ -11915,7 +11925,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>2018</v>
       </c>
@@ -11938,7 +11948,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>2018</v>
       </c>
@@ -11961,7 +11971,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>2018</v>
       </c>
@@ -11984,7 +11994,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>2018</v>
       </c>
@@ -12007,7 +12017,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>2018</v>
       </c>
@@ -12030,7 +12040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>2018</v>
       </c>
@@ -12053,7 +12063,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>2018</v>
       </c>
@@ -12076,7 +12086,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>2018</v>
       </c>
@@ -12099,7 +12109,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>2018</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>2018</v>
       </c>
@@ -12145,7 +12155,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>2018</v>
       </c>
@@ -12168,7 +12178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>2018</v>
       </c>
@@ -12191,7 +12201,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>2018</v>
       </c>
@@ -12214,7 +12224,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>2018</v>
       </c>
@@ -12237,7 +12247,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>2018</v>
       </c>
@@ -12260,7 +12270,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>2018</v>
       </c>
@@ -12283,7 +12293,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>2018</v>
       </c>
@@ -12306,7 +12316,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>2018</v>
       </c>
@@ -12329,7 +12339,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>2018</v>
       </c>
@@ -12352,7 +12362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>2018</v>
       </c>
@@ -12375,7 +12385,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>2018</v>
       </c>
@@ -12398,7 +12408,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>2018</v>
       </c>
@@ -12421,7 +12431,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>2018</v>
       </c>
@@ -12444,7 +12454,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>2018</v>
       </c>
@@ -12467,7 +12477,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>2018</v>
       </c>
@@ -12490,7 +12500,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>2018</v>
       </c>
@@ -12513,7 +12523,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>2018</v>
       </c>
@@ -12536,7 +12546,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>2018</v>
       </c>
@@ -12559,7 +12569,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>2018</v>
       </c>
@@ -12582,7 +12592,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>2018</v>
       </c>
@@ -12605,7 +12615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>2018</v>
       </c>
@@ -12628,7 +12638,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>2018</v>
       </c>
@@ -12651,7 +12661,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>2018</v>
       </c>
@@ -12674,7 +12684,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>2018</v>
       </c>
@@ -12697,7 +12707,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>2018</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>2018</v>
       </c>
@@ -12743,7 +12753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>2018</v>
       </c>
@@ -12766,7 +12776,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>2018</v>
       </c>
@@ -12789,7 +12799,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>2018</v>
       </c>
@@ -12812,7 +12822,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>2018</v>
       </c>
@@ -12835,7 +12845,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>2018</v>
       </c>
@@ -12858,7 +12868,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>2018</v>
       </c>
@@ -12881,7 +12891,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>2018</v>
       </c>
@@ -12904,7 +12914,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>2018</v>
       </c>
@@ -12927,7 +12937,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>2018</v>
       </c>
@@ -12950,7 +12960,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>2018</v>
       </c>
@@ -12973,7 +12983,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -12996,7 +13006,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>2018</v>
       </c>
@@ -13019,7 +13029,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>2018</v>
       </c>
@@ -13042,7 +13052,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>2018</v>
       </c>
@@ -13065,7 +13075,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>2018</v>
       </c>
@@ -13088,7 +13098,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>2018</v>
       </c>
@@ -13111,7 +13121,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>2018</v>
       </c>
@@ -13134,7 +13144,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>2018</v>
       </c>
@@ -13157,7 +13167,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>2018</v>
       </c>
@@ -13180,7 +13190,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>2018</v>
       </c>
@@ -13203,7 +13213,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>2018</v>
       </c>
@@ -13226,7 +13236,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>2019</v>
       </c>
@@ -13249,7 +13259,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>2019</v>
       </c>
@@ -13272,7 +13282,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>2019</v>
       </c>
@@ -13295,7 +13305,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>2019</v>
       </c>
@@ -13318,7 +13328,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>2019</v>
       </c>
@@ -13341,7 +13351,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>2019</v>
       </c>
@@ -13364,7 +13374,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>2019</v>
       </c>
@@ -13387,7 +13397,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>2019</v>
       </c>
@@ -13410,7 +13420,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>2019</v>
       </c>
@@ -13433,7 +13443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>2019</v>
       </c>
@@ -13456,7 +13466,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>2019</v>
       </c>
@@ -13479,7 +13489,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>2019</v>
       </c>
@@ -13502,7 +13512,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>2019</v>
       </c>
@@ -13525,7 +13535,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>2019</v>
       </c>
@@ -13548,7 +13558,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>2019</v>
       </c>
@@ -13571,7 +13581,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>2019</v>
       </c>
@@ -13594,7 +13604,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>2019</v>
       </c>
@@ -13617,7 +13627,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>2019</v>
       </c>
@@ -13640,7 +13650,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>2019</v>
       </c>
@@ -13663,7 +13673,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>2019</v>
       </c>
@@ -13686,7 +13696,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>2019</v>
       </c>
@@ -13709,7 +13719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>2019</v>
       </c>
@@ -13732,7 +13742,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>2019</v>
       </c>
@@ -13755,7 +13765,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>2019</v>
       </c>
@@ -13778,7 +13788,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>2019</v>
       </c>
@@ -13801,7 +13811,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>2019</v>
       </c>
@@ -13824,7 +13834,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>2019</v>
       </c>
@@ -13847,7 +13857,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>2019</v>
       </c>
@@ -13870,7 +13880,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>2019</v>
       </c>
@@ -13893,7 +13903,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>2019</v>
       </c>
@@ -13916,7 +13926,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>2019</v>
       </c>
@@ -13939,7 +13949,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>2019</v>
       </c>
@@ -13962,7 +13972,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>2019</v>
       </c>
@@ -13985,7 +13995,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>2019</v>
       </c>
@@ -14008,7 +14018,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>2019</v>
       </c>
@@ -14031,7 +14041,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>2019</v>
       </c>
@@ -14054,7 +14064,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>2019</v>
       </c>
@@ -14077,7 +14087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>2019</v>
       </c>
@@ -14100,7 +14110,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>2019</v>
       </c>
@@ -14123,7 +14133,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>2019</v>
       </c>
@@ -14146,7 +14156,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>2019</v>
       </c>
@@ -14169,7 +14179,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>2019</v>
       </c>
@@ -14192,7 +14202,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>2019</v>
       </c>
@@ -14215,7 +14225,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>2019</v>
       </c>
@@ -14238,7 +14248,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>2019</v>
       </c>
@@ -14261,7 +14271,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>2019</v>
       </c>
@@ -14284,7 +14294,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>2019</v>
       </c>
@@ -14307,7 +14317,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>2019</v>
       </c>
@@ -14330,7 +14340,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>2019</v>
       </c>
@@ -14353,7 +14363,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>2019</v>
       </c>
@@ -14376,7 +14386,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>2019</v>
       </c>
@@ -14399,7 +14409,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>2019</v>
       </c>
@@ -14422,7 +14432,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>2019</v>
       </c>
@@ -14445,7 +14455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>2019</v>
       </c>
@@ -14468,7 +14478,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>2019</v>
       </c>
@@ -14491,7 +14501,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>2019</v>
       </c>
@@ -14514,7 +14524,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>2019</v>
       </c>
@@ -14537,7 +14547,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>2019</v>
       </c>
@@ -14560,7 +14570,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>2019</v>
       </c>
@@ -14583,7 +14593,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>2019</v>
       </c>
@@ -14606,7 +14616,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>2019</v>
       </c>
@@ -14629,7 +14639,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>2019</v>
       </c>
@@ -14652,7 +14662,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>2019</v>
       </c>
@@ -14675,7 +14685,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>2019</v>
       </c>
@@ -14698,7 +14708,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>2019</v>
       </c>
@@ -14721,7 +14731,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>2019</v>
       </c>
@@ -14744,7 +14754,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>2019</v>
       </c>
@@ -14767,7 +14777,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>2019</v>
       </c>
@@ -14790,7 +14800,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>2019</v>
       </c>
@@ -14813,7 +14823,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>2019</v>
       </c>
@@ -14836,7 +14846,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>2019</v>
       </c>
@@ -14859,7 +14869,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>2019</v>
       </c>
@@ -14882,7 +14892,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>2019</v>
       </c>
@@ -14905,7 +14915,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>2019</v>
       </c>
@@ -14928,7 +14938,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>2019</v>
       </c>
@@ -14951,7 +14961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>2019</v>
       </c>
@@ -14974,7 +14984,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>2019</v>
       </c>
@@ -14997,7 +15007,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>2019</v>
       </c>
@@ -15020,7 +15030,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>2019</v>
       </c>
@@ -15043,7 +15053,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>2019</v>
       </c>
@@ -15066,7 +15076,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>2019</v>
       </c>
@@ -15089,7 +15099,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>2019</v>
       </c>
@@ -15112,7 +15122,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>2019</v>
       </c>
@@ -15135,7 +15145,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>2019</v>
       </c>
@@ -15158,7 +15168,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>2019</v>
       </c>
@@ -15181,7 +15191,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>2019</v>
       </c>
@@ -15204,7 +15214,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>2019</v>
       </c>
@@ -15227,7 +15237,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>2019</v>
       </c>
@@ -15250,7 +15260,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>2019</v>
       </c>
@@ -15273,7 +15283,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>2019</v>
       </c>
@@ -15296,7 +15306,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>2019</v>
       </c>
@@ -15319,7 +15329,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>2019</v>
       </c>
@@ -15342,7 +15352,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>2019</v>
       </c>
@@ -15365,7 +15375,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>2019</v>
       </c>
@@ -15388,7 +15398,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>2019</v>
       </c>
@@ -15411,7 +15421,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>2019</v>
       </c>
@@ -15434,7 +15444,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>2019</v>
       </c>
@@ -15457,7 +15467,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>2019</v>
       </c>
@@ -15480,7 +15490,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>2019</v>
       </c>
@@ -15503,7 +15513,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>2019</v>
       </c>
@@ -15526,7 +15536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>2019</v>
       </c>
@@ -15549,7 +15559,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>2019</v>
       </c>
@@ -15572,7 +15582,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>2019</v>
       </c>
@@ -15595,7 +15605,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>2019</v>
       </c>
@@ -15618,7 +15628,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>2019</v>
       </c>
@@ -15641,7 +15651,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>2019</v>
       </c>
@@ -15664,7 +15674,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>2019</v>
       </c>
@@ -15687,7 +15697,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>2019</v>
       </c>
@@ -15710,7 +15720,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>2019</v>
       </c>
@@ -15733,7 +15743,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>2019</v>
       </c>
@@ -15756,7 +15766,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="16.899999999999999" x14ac:dyDescent="0.6">
       <c r="A289" s="1">
         <v>2019</v>
       </c>
@@ -15779,7 +15789,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>2020</v>
       </c>
@@ -15802,7 +15812,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>2020</v>
       </c>
@@ -15825,7 +15835,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>2020</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>2020</v>
       </c>
@@ -15871,7 +15881,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>2020</v>
       </c>
@@ -15894,7 +15904,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>2020</v>
       </c>
@@ -15917,7 +15927,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>2020</v>
       </c>
@@ -15940,7 +15950,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>2020</v>
       </c>
@@ -15963,7 +15973,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>2020</v>
       </c>
@@ -15986,7 +15996,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>2020</v>
       </c>
@@ -16009,7 +16019,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>2020</v>
       </c>
@@ -16032,7 +16042,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>2020</v>
       </c>
@@ -16055,7 +16065,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>2020</v>
       </c>
@@ -16078,7 +16088,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>2020</v>
       </c>
@@ -16101,7 +16111,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>2020</v>
       </c>
@@ -16124,7 +16134,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>2020</v>
       </c>
@@ -16147,7 +16157,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>2020</v>
       </c>
@@ -16170,7 +16180,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>2020</v>
       </c>
@@ -16193,7 +16203,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>2020</v>
       </c>
@@ -16216,7 +16226,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>2020</v>
       </c>
@@ -16239,7 +16249,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>2020</v>
       </c>
@@ -16262,7 +16272,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>2020</v>
       </c>
@@ -16285,7 +16295,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>2020</v>
       </c>
@@ -16308,7 +16318,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>2020</v>
       </c>
@@ -16331,7 +16341,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>2020</v>
       </c>
@@ -16354,7 +16364,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>2020</v>
       </c>
@@ -16377,7 +16387,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>2020</v>
       </c>
@@ -16400,7 +16410,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>2020</v>
       </c>
@@ -16423,7 +16433,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>2020</v>
       </c>
@@ -16446,7 +16456,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>2020</v>
       </c>
@@ -16469,7 +16479,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>2020</v>
       </c>
@@ -16492,7 +16502,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>2020</v>
       </c>
@@ -16515,7 +16525,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>2020</v>
       </c>
@@ -16538,7 +16548,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>2020</v>
       </c>
@@ -16561,7 +16571,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>2020</v>
       </c>
@@ -16584,7 +16594,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>2020</v>
       </c>
@@ -16607,7 +16617,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>2020</v>
       </c>
@@ -16630,7 +16640,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>2020</v>
       </c>
@@ -16653,7 +16663,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>2020</v>
       </c>
@@ -16676,7 +16686,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>2020</v>
       </c>
@@ -16699,7 +16709,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>2020</v>
       </c>
@@ -16722,7 +16732,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>2020</v>
       </c>
@@ -16745,7 +16755,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>2020</v>
       </c>
@@ -16768,7 +16778,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>2020</v>
       </c>
@@ -16791,7 +16801,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>2020</v>
       </c>
@@ -16814,7 +16824,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>2020</v>
       </c>
@@ -16837,7 +16847,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>2020</v>
       </c>
@@ -16860,7 +16870,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>2020</v>
       </c>
@@ -16883,7 +16893,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>2020</v>
       </c>
@@ -16906,7 +16916,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>2020</v>
       </c>
@@ -16929,7 +16939,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>2020</v>
       </c>
@@ -16952,7 +16962,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>2020</v>
       </c>
@@ -16975,7 +16985,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>2020</v>
       </c>
@@ -16998,7 +17008,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>2020</v>
       </c>
@@ -17021,7 +17031,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>2020</v>
       </c>
@@ -17044,7 +17054,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>2020</v>
       </c>
@@ -17067,7 +17077,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>2020</v>
       </c>
@@ -17090,7 +17100,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>2020</v>
       </c>
@@ -17113,7 +17123,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>2020</v>
       </c>
@@ -17136,7 +17146,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>2020</v>
       </c>
@@ -17159,7 +17169,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>2020</v>
       </c>
@@ -17182,7 +17192,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>2020</v>
       </c>
@@ -17205,7 +17215,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>2020</v>
       </c>
@@ -17228,7 +17238,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>2020</v>
       </c>
@@ -17251,7 +17261,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>2020</v>
       </c>
@@ -17274,7 +17284,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>2020</v>
       </c>
@@ -17297,7 +17307,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>2020</v>
       </c>
@@ -17320,7 +17330,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>2020</v>
       </c>
@@ -17343,7 +17353,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>2020</v>
       </c>
@@ -17366,7 +17376,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>2020</v>
       </c>
@@ -17389,7 +17399,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>2020</v>
       </c>
@@ -17412,7 +17422,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>2020</v>
       </c>
@@ -17435,7 +17445,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>2020</v>
       </c>
@@ -17458,7 +17468,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A363" s="1">
         <v>2020</v>
       </c>
@@ -17481,7 +17491,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>2020</v>
       </c>
@@ -17504,7 +17514,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>2020</v>
       </c>
@@ -17527,7 +17537,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>2020</v>
       </c>
@@ -17550,7 +17560,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>2020</v>
       </c>
@@ -17573,7 +17583,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>2020</v>
       </c>
@@ -17596,7 +17606,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>2020</v>
       </c>
@@ -17619,7 +17629,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>2020</v>
       </c>
@@ -17642,7 +17652,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>2020</v>
       </c>
@@ -17665,7 +17675,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>2020</v>
       </c>
@@ -17688,7 +17698,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>2020</v>
       </c>
@@ -17711,7 +17721,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>2020</v>
       </c>
@@ -17734,7 +17744,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>2020</v>
       </c>
@@ -17757,7 +17767,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>2020</v>
       </c>
@@ -17780,7 +17790,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>2020</v>
       </c>
@@ -17803,7 +17813,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A378" s="1">
         <v>2020</v>
       </c>
@@ -17826,7 +17836,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A379" s="1">
         <v>2020</v>
       </c>
@@ -17849,7 +17859,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>2020</v>
       </c>
@@ -17872,7 +17882,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>2020</v>
       </c>
@@ -17895,7 +17905,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>2020</v>
       </c>
@@ -17918,7 +17928,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>2020</v>
       </c>
@@ -17941,7 +17951,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>2020</v>
       </c>
@@ -17964,7 +17974,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>2020</v>
       </c>
@@ -17987,7 +17997,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>2020</v>
       </c>
@@ -18010,7 +18020,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>2020</v>
       </c>
@@ -18033,7 +18043,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>2020</v>
       </c>
@@ -18056,7 +18066,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>2020</v>
       </c>
@@ -18079,7 +18089,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>2020</v>
       </c>
@@ -18102,7 +18112,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>2020</v>
       </c>
@@ -18125,7 +18135,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A392" s="1">
         <v>2020</v>
       </c>
@@ -18148,7 +18158,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A393" s="1">
         <v>2020</v>
       </c>
@@ -18171,7 +18181,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>2020</v>
       </c>
@@ -18194,7 +18204,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>2020</v>
       </c>
@@ -18217,7 +18227,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>2020</v>
       </c>
@@ -18240,7 +18250,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>2020</v>
       </c>
@@ -18263,7 +18273,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>2020</v>
       </c>
@@ -18286,7 +18296,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>2020</v>
       </c>
@@ -18309,7 +18319,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A400" s="1">
         <v>2020</v>
       </c>
@@ -18332,7 +18342,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A401" s="1">
         <v>2020</v>
       </c>
@@ -18355,7 +18365,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A402" s="1">
         <v>2020</v>
       </c>
@@ -18378,7 +18388,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A403" s="1">
         <v>2020</v>
       </c>
@@ -18401,7 +18411,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A404" s="1">
         <v>2020</v>
       </c>
@@ -18424,7 +18434,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A405" s="1">
         <v>2020</v>
       </c>
@@ -18447,7 +18457,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A406" s="1">
         <v>2020</v>
       </c>
@@ -18470,7 +18480,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A407" s="1">
         <v>2020</v>
       </c>
@@ -18493,7 +18503,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A408" s="1">
         <v>2020</v>
       </c>
@@ -18516,7 +18526,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A409" s="1">
         <v>2020</v>
       </c>
@@ -18539,7 +18549,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A410" s="1">
         <v>2020</v>
       </c>
@@ -18562,7 +18572,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A411" s="1">
         <v>2020</v>
       </c>
@@ -18585,7 +18595,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A412" s="1">
         <v>2020</v>
       </c>
@@ -18608,7 +18618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A413" s="1">
         <v>2020</v>
       </c>
@@ -18631,7 +18641,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A414" s="1">
         <v>2020</v>
       </c>
@@ -18654,7 +18664,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A415" s="1">
         <v>2020</v>
       </c>
@@ -18677,7 +18687,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A416" s="1">
         <v>2020</v>
       </c>
@@ -18700,7 +18710,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A417" s="1">
         <v>2020</v>
       </c>
@@ -18723,7 +18733,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A418" s="1">
         <v>2020</v>
       </c>
@@ -18746,7 +18756,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A419" s="1">
         <v>2020</v>
       </c>
@@ -18769,7 +18779,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A420" s="1">
         <v>2020</v>
       </c>
@@ -18792,7 +18802,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A421" s="1">
         <v>2020</v>
       </c>
@@ -18815,7 +18825,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A422" s="1">
         <v>2020</v>
       </c>
@@ -18838,7 +18848,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A423" s="1">
         <v>2020</v>
       </c>
@@ -18861,7 +18871,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A424" s="1">
         <v>2020</v>
       </c>
@@ -18884,7 +18894,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A425" s="1">
         <v>2020</v>
       </c>
@@ -18907,7 +18917,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A426" s="1">
         <v>2020</v>
       </c>
@@ -18930,7 +18940,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>2020</v>
       </c>
@@ -18953,7 +18963,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A428" s="1">
         <v>2021</v>
       </c>
@@ -18976,7 +18986,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A429" s="1">
         <v>2021</v>
       </c>
@@ -18999,7 +19009,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A430" s="1">
         <v>2021</v>
       </c>
@@ -19022,7 +19032,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A431" s="1">
         <v>2021</v>
       </c>
@@ -19045,7 +19055,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A432" s="1">
         <v>2021</v>
       </c>
@@ -19068,7 +19078,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A433" s="1">
         <v>2021</v>
       </c>
@@ -19091,7 +19101,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>2021</v>
       </c>
@@ -19114,7 +19124,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>2021</v>
       </c>
@@ -19137,7 +19147,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>2021</v>
       </c>
@@ -19160,7 +19170,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A437" s="1">
         <v>2021</v>
       </c>
@@ -19183,7 +19193,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A438" s="1">
         <v>2021</v>
       </c>
@@ -19206,7 +19216,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A439" s="1">
         <v>2021</v>
       </c>
@@ -19229,7 +19239,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A440" s="1">
         <v>2021</v>
       </c>
@@ -19252,7 +19262,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A441" s="1">
         <v>2021</v>
       </c>
@@ -19275,7 +19285,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A442" s="1">
         <v>2021</v>
       </c>
@@ -19298,7 +19308,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A443" s="1">
         <v>2021</v>
       </c>
@@ -19321,7 +19331,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A444" s="1">
         <v>2021</v>
       </c>
@@ -19344,7 +19354,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A445" s="1">
         <v>2021</v>
       </c>
@@ -19367,7 +19377,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A446" s="1">
         <v>2021</v>
       </c>
@@ -19390,7 +19400,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A447" s="1">
         <v>2021</v>
       </c>
@@ -19413,7 +19423,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A448" s="1">
         <v>2021</v>
       </c>
@@ -19436,7 +19446,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A449" s="1">
         <v>2021</v>
       </c>
@@ -19459,7 +19469,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A450" s="1">
         <v>2021</v>
       </c>
@@ -19482,7 +19492,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A451" s="1">
         <v>2021</v>
       </c>
@@ -19505,7 +19515,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A452" s="1">
         <v>2021</v>
       </c>
@@ -19528,7 +19538,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A453" s="1">
         <v>2021</v>
       </c>
@@ -19551,7 +19561,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A454" s="1">
         <v>2021</v>
       </c>
@@ -19574,7 +19584,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A455" s="1">
         <v>2021</v>
       </c>
@@ -19597,7 +19607,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A456" s="1">
         <v>2021</v>
       </c>
@@ -19620,7 +19630,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A457" s="1">
         <v>2021</v>
       </c>
@@ -19643,7 +19653,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A458" s="1">
         <v>2021</v>
       </c>
@@ -19666,7 +19676,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A459" s="1">
         <v>2021</v>
       </c>
@@ -19689,7 +19699,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A460" s="1">
         <v>2021</v>
       </c>
@@ -19712,7 +19722,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A461" s="1">
         <v>2021</v>
       </c>
@@ -19735,7 +19745,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A462" s="1">
         <v>2021</v>
       </c>
@@ -19758,7 +19768,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A463" s="1">
         <v>2021</v>
       </c>
@@ -19781,7 +19791,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A464" s="1">
         <v>2021</v>
       </c>
@@ -19804,7 +19814,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A465" s="1">
         <v>2021</v>
       </c>
@@ -19827,7 +19837,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A466" s="1">
         <v>2021</v>
       </c>
@@ -19850,7 +19860,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A467" s="1">
         <v>2021</v>
       </c>
@@ -19873,7 +19883,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A468" s="1">
         <v>2021</v>
       </c>
@@ -19896,7 +19906,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A469" s="1">
         <v>2021</v>
       </c>
@@ -19919,7 +19929,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A470" s="1">
         <v>2021</v>
       </c>
@@ -19939,7 +19949,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A471" s="1">
         <v>2021</v>
       </c>
@@ -19962,23 +19972,24 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A472" s="9">
         <v>2021</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" s="9" t="s">
         <v>2388</v>
       </c>
-      <c r="C472" s="1" t="s">
+      <c r="C472" s="9" t="s">
         <v>2389</v>
       </c>
-      <c r="E472" s="1" t="s">
+      <c r="D472" s="9"/>
+      <c r="E472" s="9" t="s">
         <v>2390</v>
       </c>
-      <c r="F472" s="1" t="s">
+      <c r="F472" s="9" t="s">
         <v>2392</v>
       </c>
-      <c r="G472" s="1" t="s">
+      <c r="G472" s="9" t="s">
         <v>2391</v>
       </c>
     </row>
